--- a/COLORES.xlsx
+++ b/COLORES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="670">
   <si>
     <t>ID Color</t>
   </si>
@@ -2035,24 +2035,6 @@
   </si>
   <si>
     <t>ZEBRA</t>
-  </si>
-  <si>
-    <t>VIOLETA</t>
-  </si>
-  <si>
-    <t>FUCSIA</t>
-  </si>
-  <si>
-    <t>LILA</t>
-  </si>
-  <si>
-    <t>CELESTE</t>
-  </si>
-  <si>
-    <t>CAQUI</t>
-  </si>
-  <si>
-    <t>PURPURA</t>
   </si>
 </sst>
 </file>
@@ -2422,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8031,10 +8013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8042,7 +8024,7 @@
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8050,184 +8032,844 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8000</v>
+        <v>8001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8001</v>
+        <v>8010</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>8010</v>
+        <v>8020</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8020</v>
+        <v>8200166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8200166</v>
+        <v>8030</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8030</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8040</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8040</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8041</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8041</v>
+        <v>8047</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8047</v>
+        <v>8060</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1510050</v>
+        <v>8061</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8063</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8200174</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8070</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>8073</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8076</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8080</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>8090</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8091</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>8110</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8111</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8130</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8140</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8141</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8203</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>8204</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>8206</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>8207</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>8209</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8218</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8221</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>8223</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8225</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>8229</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>8232</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8234</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>8235</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>8237</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>8239</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>8241</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>8243</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>8245</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>8248</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>8249</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>8251</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>8253</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>8255</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>8271</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>8272</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>8273</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>8274</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>8277</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>8279</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>8281</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>8285</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>8287</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>8288</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>8290</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>8293</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>8294</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>8295</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>8297</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>8305</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>8311</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>8313</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>8314</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>8315</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>8316</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>8318</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>8319</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>8321</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>8323</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>8325</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>8326</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>8333</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>8343</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>8344</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>8346</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>8347</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>8349</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>8200236</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>8371</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>8372</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>8374</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>8376</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>8377</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>8379</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>8471</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>8543</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>8582</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>8723</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>8726</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>8734</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>117</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>8723</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>49</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>48</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>8200175</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>8200231</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>124</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>8200159</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>8200214</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>125</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>135</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>137</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J31" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J33" t="s">
-        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/COLORES.xlsx
+++ b/COLORES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OTTOMOCION\Desktop\hPrac\colores\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="670">
   <si>
     <t>ID Color</t>
   </si>
@@ -2404,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8013,10 +8013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H242" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8872,6 +8872,1254 @@
         <v>441</v>
       </c>
     </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>8200186</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>141</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>103</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>29</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>8200194</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>8200163</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>8200232</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>8200245</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>52</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>25</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>51</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>110</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>39</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>26</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>45</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>8200205</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>8200150</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>8200217</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>8200181</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>8200148</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>8200162</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>8200222</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>8200189</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>8200252</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>8200235</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>8200143</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>84</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>146</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>64</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>156</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>107</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>8200202</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>71</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>8200215</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>8200139</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>8200146</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>9</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>113</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>8200101</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>8200144</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>157</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>158</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>8200080</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>8200247</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>159</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>8200095</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>78</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>11</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>160</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>161</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>8200161</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>56</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>8200085</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>8200137</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>8200083</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>8200164</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>8200090</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>8200138</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>163</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>164</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>165</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>82</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>91</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>14</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>62</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>73</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>68</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>8200229</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>23</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>22</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>42</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>166</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>8200151</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>36</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>94</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>8200153</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>87</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>5</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>8200219</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>93</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>8200261</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>20</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>8200206</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>12</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>89</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>17</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>10</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>18</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>8200262</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>13</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>54</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>8200149</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>8200230</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>65</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>8200135</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>8200092</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>8200227</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>90</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>21</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>8200136</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>8200218</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>19</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>8200190</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>8200142</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>67</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>168</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>169</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>170</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>171</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>172</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>101</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>44</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>8200120</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>8200191</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>8200121</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>8200122</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>8200087</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>174</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>8200127</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>8200237</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>6</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>8200187</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>176</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>8200253</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>83</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>8200109</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>8200115</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>8200155</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>88</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>177</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>180</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>8200100</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>8200103</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>178</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>30</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>8200117</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>8200088</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>8200102</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>8200118</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>8200147</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>75</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>8200124</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>8200086</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>61</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>38</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>184</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>8200145</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>7</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>8200157</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>2</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>8200119</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>53</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>85</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>9000</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/COLORES.xlsx
+++ b/COLORES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OTTOMOCION\Desktop\hPrac\colores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="675">
   <si>
     <t>ID Color</t>
   </si>
@@ -2035,6 +2035,21 @@
   </si>
   <si>
     <t>ZEBRA</t>
+  </si>
+  <si>
+    <t>369 - VERDE / NARANJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 - PLATA </t>
+  </si>
+  <si>
+    <t>726 - NEGRO / BLANCO</t>
+  </si>
+  <si>
+    <t>734 - AZUL / NEGRO</t>
+  </si>
+  <si>
+    <t>AZUL / ROSA</t>
   </si>
 </sst>
 </file>
@@ -2404,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:B528"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D518" sqref="D518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8013,10 +8028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B262"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H242" sqref="H242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8034,2091 +8049,695 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8001</v>
+        <v>8010</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8010</v>
+        <v>8030</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>8020</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>8040</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8200166</v>
+        <v>8060</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8030</v>
+        <v>8070</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8040</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
+        <v>8080</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8041</v>
+        <v>8090</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8047</v>
+        <v>8091</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8060</v>
+        <v>8100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8061</v>
+        <v>8110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>8063</v>
+        <v>8130</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>8200174</v>
+        <v>8140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>8070</v>
+        <v>8141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>8073</v>
+        <v>8203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>8076</v>
+        <v>8204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8080</v>
+        <v>8218</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>8090</v>
+        <v>8229</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>8091</v>
+        <v>8232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>8100</v>
+        <v>8243</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>8110</v>
+        <v>8245</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>8111</v>
+        <v>8271</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>8130</v>
+        <v>8272</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>8140</v>
+        <v>8285</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>8141</v>
+        <v>8287</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>8203</v>
+        <v>8305</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>8204</v>
+        <v>8311</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>8206</v>
+        <v>8313</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>8207</v>
+        <v>8333</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>8209</v>
+        <v>8343</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>8218</v>
+        <v>8344</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>8221</v>
+        <v>8200236</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>8223</v>
+        <v>8371</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>8225</v>
+        <v>8471</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>8229</v>
+        <v>8543</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>8232</v>
+        <v>8723</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>8234</v>
+        <v>8726</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>131</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>8235</v>
+        <v>8734</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>133</v>
+        <v>673</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>8237</v>
+      <c r="A39" s="4">
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>135</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>8239</v>
+        <v>8200139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>8241</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>8243</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>8245</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>8248</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>8249</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>8251</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>8253</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>8255</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>8271</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>8272</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>8273</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>8274</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>8277</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>8279</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>8281</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>8285</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>8287</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>8288</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>8290</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>8293</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>8294</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>8295</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>8297</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>8305</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>8311</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>8313</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>8314</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>8315</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>8316</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>8318</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>8319</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>8321</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>8323</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>8325</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>8326</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>8333</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>8343</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>8344</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>8346</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>8347</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>8349</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>8200236</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>8371</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>8372</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="A84" s="4"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>8374</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>8376</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>8377</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>8379</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>8471</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>8543</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>8582</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="A91" s="4"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>8723</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>8726</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>8734</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>293</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>117</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>8723</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>49</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>48</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>8200175</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>398</v>
-      </c>
+      <c r="A99" s="4"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>8200231</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>124</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>8200159</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>8200214</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="A103" s="4"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>125</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>406</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>135</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>431</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>137</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>15</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>452</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>8200186</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>453</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
-        <v>141</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>103</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>29</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>8200194</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="A112" s="4"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>8200163</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>463</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>8200232</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>8200245</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>465</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>52</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="A116" s="4"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
-        <v>25</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>51</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>468</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
-        <v>110</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>39</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>470</v>
-      </c>
+      <c r="A120" s="4"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
-        <v>26</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>471</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>45</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>8200205</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>473</v>
-      </c>
+      <c r="A123" s="4"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>8200150</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>474</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>8200217</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>475</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>8200181</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>476</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>8200148</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>477</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>8200162</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>8200222</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>8200189</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>480</v>
-      </c>
+      <c r="A128" s="4"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
-        <v>145</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>481</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>8200252</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="A132" s="4"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>8200235</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>483</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>8200143</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>484</v>
-      </c>
+      <c r="A134" s="4"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
-        <v>84</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>487</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>146</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>64</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>489</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
-        <v>156</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>505</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <v>107</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>506</v>
-      </c>
+      <c r="A139" s="4"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>8200202</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>508</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
-        <v>71</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>509</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>8200215</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>8200139</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>520</v>
-      </c>
+      <c r="A142" s="4"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>8200146</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>523</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
-        <v>9</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
-        <v>113</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>527</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>8200101</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>528</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>8200144</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
-        <v>157</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
-        <v>158</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>531</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>8200080</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>8200247</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>533</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
-        <v>159</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>8200095</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
-        <v>78</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
-        <v>11</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
-        <v>160</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
-        <v>161</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>8200161</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
-        <v>56</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>8200085</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>8200137</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>8200083</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>8200164</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>8200090</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>8200138</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
-        <v>163</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
-        <v>164</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
-        <v>165</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
-        <v>82</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
-        <v>91</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
-        <v>14</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
-        <v>62</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
-        <v>73</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
-        <v>68</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>8200229</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
-        <v>23</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
-        <v>22</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
-        <v>42</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
-        <v>166</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>8200151</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
-        <v>36</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
-        <v>94</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>8200153</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
-        <v>87</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
-        <v>5</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>8200219</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
-        <v>93</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>8200261</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
-        <v>20</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>8200206</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
-        <v>12</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
-        <v>89</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
-        <v>17</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
-        <v>10</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
-        <v>18</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>8200262</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
-        <v>13</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
-        <v>54</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>8200149</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>8200230</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
-        <v>65</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>8200135</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>8200092</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>8200227</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
-        <v>90</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
-        <v>21</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>8200136</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>8200218</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
-        <v>19</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>8200190</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>8200142</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>594</v>
-      </c>
+      <c r="A153" s="4"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
-        <v>67</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>595</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
-        <v>168</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>597</v>
-      </c>
+      <c r="A214" s="4"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
-        <v>169</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>598</v>
-      </c>
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
-        <v>170</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>599</v>
-      </c>
+      <c r="A216" s="4"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
-        <v>171</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
-        <v>172</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
-        <v>101</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
-        <v>44</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>8200120</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>8200191</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>8200121</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>8200122</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>8200087</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
-        <v>174</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>8200127</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>8200237</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
-        <v>6</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>8200187</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
-        <v>176</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>8200253</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="4">
-        <v>83</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>8200109</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>8200115</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>8200155</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="4">
-        <v>88</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="4">
-        <v>177</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
-        <v>180</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>8200100</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>8200103</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="4">
-        <v>178</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="4">
-        <v>30</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>8200117</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>8200088</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>8200102</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>8200118</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>8200147</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="4">
-        <v>75</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>8200124</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>8200086</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="4">
-        <v>61</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
-        <v>38</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="4">
-        <v>184</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>8200145</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="4">
-        <v>7</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>8200157</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="4">
-        <v>2</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>8200119</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
-        <v>53</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
-        <v>85</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>9000</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>668</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
